--- a/biology/Botanique/Grewia_asiatica/Grewia_asiatica.xlsx
+++ b/biology/Botanique/Grewia_asiatica/Grewia_asiatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grewia asiatica, aussi appelé phalsa, est un arbre de petite taille originaire d'Asie tropicale, assez largement cultivé pour son fruit.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre pouvant atteindre 5 à 10 m de haut, à feuilles caduques et au port buissonnant, surtout dans ses formes cultivées.
 Les jeunes branches sont plus ou moins recouvertes de poils étoilés.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, peut être originaire du sud de l'Himalaya, est considérée comme native en Asie tropicale : Inde, Népal, Thaïlande, Pakistan, Bangladesh, Myanmar, Cambodge, Laos, Vietnam, sud de la Chine...
 Elle est cultivée est Indonésie, Malaisie et Philippines. Elle s'est naturalisée en Australie et à la Réunion.
@@ -579,7 +595,9 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonyme : Grewia subinaequalis DC.
 </t>
@@ -610,7 +628,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phalsa est une plante de régions subtropicales mais pouvant s'adapter à différents climats. Il supporte un gel léger, de fortes chaleurs et surtout particulièrement bien la sècheresse. Presque tous les types de sols lui conviennent.
 Les graines germent en 15 à 20 jours.
@@ -648,7 +668,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe, qui représente près de 70 % du fruit en est la partie comestible.
 Composition pour 100 g :
